--- a/xAsset/xALR规则检查/xALR校验规则-隐藏规则.xlsx
+++ b/xAsset/xALR规则检查/xALR校验规则-隐藏规则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="277"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="362"/>
   </bookViews>
   <sheets>
     <sheet name="财产险" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="265">
   <si>
     <t>报表名称</t>
   </si>
@@ -861,6 +861,166 @@
   </si>
   <si>
     <t>'表1-1 资产配置状况'!C38/'表1-1 资产配置状况'!C$77|'表3-2 成本收益匹配压力测试'!B12+'表3-2 成本收益匹配压力测试'!B13+'表3-2 成本收益匹配压力测试'!B14+'表3-2 成本收益匹配压力测试'!B15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!E130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!F130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!E132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!F132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境内权益资产的99%置信区间一年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境内权益资产的99%置信区间三年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境外权益资产的99%置信区间一年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境外权益资产的99%置信区间三年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-2 资产信用状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-2 资产信用状况'!C87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"大于等于0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"[0,10000]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-2-5集中度风险，行业集中度HHI取值范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2 成本收益匹配压力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!C17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!D17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!E17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!F17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券报告期末综合投资收益率取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券未来一个年度综合投资收益率或成本率取值（基本情景）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券未来一个年度综合投资收益率或成本率取值（压力一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券未来一个年度综合投资收益率或成本率取值（压力二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境内权益资产的99%置信区间一年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境内权益资产的99%置信区间三年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境外权益资产的99%置信区间一年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-1-5风险10日VaR值，境外权益资产的99%置信区间三年样本的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-2-5集中度风险，行业集中度HHI取值范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券报告期末综合投资收益率取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券未来一个年度综合投资收益率或成本率取值（基本情景）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券未来一个年度综合投资收益率或成本率取值（压力一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1收益预测，卖出回购证券未来一个年度综合投资收益率或成本率取值（压力二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!E117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!F117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!E119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-1 资产配置状况'!F119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表1-2 资产信用状况'!C83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!C16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!D16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'表3-2 成本收益匹配压力测试'!F16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -955,6 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1235,17 +1396,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
     <col min="4" max="4" width="71.25" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="28.75" bestFit="1" customWidth="1"/>
@@ -2237,6 +2398,159 @@
         <v>9</v>
       </c>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2245,17 +2559,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="83.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
@@ -2653,6 +2967,159 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
